--- a/biology/Zoologie/Gnophos_meridionalis/Gnophos_meridionalis.xlsx
+++ b/biology/Zoologie/Gnophos_meridionalis/Gnophos_meridionalis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Gnophos ténébreuse, Phalène de la Viorne
 Gnophos furvata, la Gnophos ténébreuse ou Phalène de la Viorne, est une espèce de la famille des Geometridae.
@@ -512,16 +524,18 @@
           <t>Taxinomie et systématique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>L'espèce a été initialement décrite dans le genre Geometra sous le protonyme Geometra furvata Denis &amp; Schiffermüller, 1775. Les synonymes suivants sont listés[1] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>L'espèce a été initialement décrite dans le genre Geometra sous le protonyme Geometra furvata Denis &amp; Schiffermüller, 1775. Les synonymes suivants sont listés :
 Geometra furvaria Hübner, 1799
 Geometra furvata Denis &amp; Schiffermüller, 1775
 Gnophos furvaria (Hübner, 1799)
 Gnophos furvata subsp. meridionalis Wehrli, 1924
 Gnophos meridionalis Wehrli, 1924
 Phalaena denticulata de Villers, 1789
-Selon GBIF       (4 décembre 2021)[1], deux sous-espèces sont distinguées :
+Selon GBIF       (4 décembre 2021), deux sous-espèces sont distinguées :
 Gnophos furvata cinerascens (Turati, 1919)
 Gnophos furvata furvata (Denis &amp; Schiffermüller, 1775)</t>
         </is>
